--- a/target/test-classes/com/fdmgroup/testData/LoginData.xlsx
+++ b/target/test-classes/com/fdmgroup/testData/LoginData.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21001"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48A83809-B41C-4823-BF23-D571DF8FE846}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56E87E48-70E9-4CA3-B37D-02DDD460AF42}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="12730" yWindow="1690" windowWidth="28800" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,12 +34,6 @@
     <t>password</t>
   </si>
   <si>
-    <t>mngr112909</t>
-  </si>
-  <si>
-    <t>tytUreg</t>
-  </si>
-  <si>
     <t>mngr137319</t>
   </si>
   <si>
@@ -50,6 +44,12 @@
   </si>
   <si>
     <t>jahetAp</t>
+  </si>
+  <si>
+    <t>mngr292574</t>
+  </si>
+  <si>
+    <t>AgYbYva</t>
   </si>
 </sst>
 </file>
@@ -442,16 +442,16 @@
   <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:B5"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="27" customWidth="1"/>
-    <col min="2" max="2" width="20.28515625" customWidth="1"/>
+    <col min="2" max="2" width="20.26953125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" ht="23.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -459,7 +459,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" ht="23.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="2" t="s">
         <v>8</v>
       </c>
@@ -467,7 +467,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" ht="23.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="2" t="s">
         <v>0</v>
       </c>
@@ -475,28 +475,28 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:2" ht="23.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="23.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A5" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B5" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A5" s="2" t="s">
+    <row r="6" spans="1:2" ht="23.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A6" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B6" s="2" t="s">
         <v>9</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A6" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>5</v>
       </c>
     </row>
   </sheetData>
